--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/battery.module.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/battery.module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF96B3-CF66-C845-8AF8-18B18D2E0039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA846E7F-CB3F-BA4A-857A-BB28A23E2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42000" yWindow="-13580" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="40400" yWindow="-10240" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>key</t>
   </si>
@@ -330,6 +330,45 @@
   </si>
   <si>
     <t>d4e49725-4a5e-462e-8723-3d2a70b57204</t>
+  </si>
+  <si>
+    <t>应用模块读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.modulat.extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26788580-b8d9-4710-9187-c6e9e7f63ed2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5926eca2-573f-48fa-a8ad-c6990c38b816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.modulat.extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.modulat.extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bag/extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27eda02a-129c-41c0-bb7a-862aa7ad9ec9</t>
+  </si>
+  <si>
+    <t>dd5988a3-c7f6-4375-8d15-647976a17b8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,6 +656,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I32"/>
+  <dimension ref="A3:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A32"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1038,10 +1087,10 @@
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>55</v>
@@ -1052,10 +1101,10 @@
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>55</v>
@@ -1064,440 +1113,527 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="9" spans="1:9" s="20" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>59</v>
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
-        <v>80</v>
+      <c r="A16" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="13" t="str">
-        <f t="shared" ref="B22:B24" si="0">A30</f>
-        <v>31615963-5fef-4bb9-94c7-0d66fd2aa57e</v>
-      </c>
-      <c r="C22" s="13" t="str">
-        <f>A14</f>
-        <v>8d617d1b-bbab-40ea-ab4c-1181ba2232fc</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="11" t="str">
-        <f>B14</f>
-        <v>平台模块读取</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ef1ec208-9f77-4c58-af69-b09ed91a4322</v>
-      </c>
-      <c r="C23" s="13" t="str">
-        <f>A15</f>
-        <v>b2ae3992-19d3-4b46-8c32-df3559f3c045</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="11" t="str">
-        <f>B15</f>
-        <v>模块启用/禁用</v>
-      </c>
-      <c r="H23" s="11">
-        <v>8</v>
-      </c>
-      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f t="shared" ref="B24:B25" si="0">A33</f>
+        <v>31615963-5fef-4bb9-94c7-0d66fd2aa57e</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f>A15</f>
+        <v>8d617d1b-bbab-40ea-ab4c-1181ba2232fc</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f>B15</f>
+        <v>平台模块读取</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>5926eca2-573f-48fa-a8ad-c6990c38b816</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>A16</f>
+        <v>dd5988a3-c7f6-4375-8d15-647976a17b8a</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>A35</f>
+        <v>ef1ec208-9f77-4c58-af69-b09ed91a4322</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>A17</f>
+        <v>b2ae3992-19d3-4b46-8c32-df3559f3c045</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f>B17</f>
+        <v>模块启用/禁用</v>
+      </c>
+      <c r="H26" s="11">
+        <v>8</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="13" t="str">
+        <f>A36</f>
         <v>d4e49725-4a5e-462e-8723-3d2a70b57204</v>
       </c>
-      <c r="C24" s="13" t="str">
-        <f>A16</f>
+      <c r="C27" s="13" t="str">
+        <f>A18</f>
         <v>28e29660-9ad6-4ef1-aeb4-0ec3509888b4</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="11" t="str">
-        <f>B16</f>
+      <c r="G27" s="11" t="str">
+        <f>B18</f>
         <v>模块授权</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H27" s="11">
         <v>8</v>
       </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="11" t="str">
-        <f>B14</f>
+      <c r="B33" s="11" t="str">
+        <f>B15</f>
         <v>平台模块读取</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G33" s="11">
         <v>2</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="11" t="str">
-        <f>B15</f>
+      <c r="B35" s="11" t="str">
+        <f>B17</f>
         <v>模块启用/禁用</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G35" s="11">
         <v>8</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="11" t="str">
-        <f>B16</f>
+      <c r="B36" s="11" t="str">
+        <f>B18</f>
         <v>模块授权</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G36" s="11">
         <v>8</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/battery.module.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/battery.module.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA846E7F-CB3F-BA4A-857A-BB28A23E2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6BB78-4BC1-4840-AA6B-3CB819A5ACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40400" yWindow="-10240" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="39020" yWindow="-9700" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>key</t>
   </si>
@@ -368,6 +368,104 @@
   </si>
   <si>
     <t>dd5988a3-c7f6-4375-8d15-647976a17b8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用模块配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用模块数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.modulat.extension-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.modulat.extension-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73baa06b-f059-4261-aab9-1d13b1d1d647</t>
+  </si>
+  <si>
+    <t>2182b7d9-38a7-4def-a224-1aa5482c540c</t>
+  </si>
+  <si>
+    <t>3ccb2203-2f81-419e-a521-a519ecd621fc</t>
+  </si>
+  <si>
+    <t>2e80683f-b48d-48dc-8052-e8b559d054e8</t>
+  </si>
+  <si>
+    <t>应用配置读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用配置保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用配置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.modulat.extension-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.modulat.extension-configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.app.modulat.extension-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1bbadc82-87d5-48a7-9f7b-2935f7f4d0a4</t>
+  </si>
+  <si>
+    <t>c6f10e8c-cf8a-45ea-a656-4b5deabb0d91</t>
+  </si>
+  <si>
+    <t>2493f788-bd7a-4652-9f49-128f1356b958</t>
+  </si>
+  <si>
+    <t>84c2f31e-9eac-451d-abed-bdd419b60c86</t>
+  </si>
+  <si>
+    <t>2f67de1e-6cb8-4196-8457-6e730be2659d</t>
+  </si>
+  <si>
+    <t>5fda0799-8e8b-47fd-b334-d1c4406fa76c</t>
+  </si>
+  <si>
+    <t>act.app.modulat.extension-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.modulat.extension-configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.app.modulat.extension-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bag/config/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bag/data/:key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +736,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,16 +757,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,17 +1102,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I36"/>
+  <dimension ref="A3:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="55.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="54.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
@@ -1037,8 +1131,8 @@
       <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -1101,10 +1195,10 @@
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>55</v>
@@ -1115,10 +1209,10 @@
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>55</v>
@@ -1127,513 +1221,741 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+    <row r="10" spans="1:9" s="20" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="20" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>59</v>
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>59</v>
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>87</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="13" t="str">
-        <f t="shared" ref="B24:B25" si="0">A33</f>
+      <c r="B28" s="13" t="str">
+        <f t="shared" ref="B28:B32" si="0">A40</f>
         <v>31615963-5fef-4bb9-94c7-0d66fd2aa57e</v>
       </c>
-      <c r="C24" s="13" t="str">
-        <f>A15</f>
+      <c r="C28" s="13" t="str">
+        <f>A17</f>
         <v>8d617d1b-bbab-40ea-ab4c-1181ba2232fc</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="11" t="str">
-        <f>B15</f>
+      <c r="G28" s="11" t="str">
+        <f>B17</f>
         <v>平台模块读取</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H28" s="11">
         <v>2</v>
       </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="13" t="str">
+      <c r="B29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>5926eca2-573f-48fa-a8ad-c6990c38b816</v>
       </c>
-      <c r="C25" s="13" t="str">
-        <f>A16</f>
+      <c r="C29" s="13" t="str">
+        <f>A18</f>
         <v>dd5988a3-c7f6-4375-8d15-647976a17b8a</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H29" s="11">
         <v>2</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <f>A35</f>
-        <v>ef1ec208-9f77-4c58-af69-b09ed91a4322</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f>A17</f>
-        <v>b2ae3992-19d3-4b46-8c32-df3559f3c045</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="11" t="str">
-        <f>B17</f>
-        <v>模块启用/禁用</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>1bbadc82-87d5-48a7-9f7b-2935f7f4d0a4</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>A$19</f>
+        <v>3ccb2203-2f81-419e-a521-a519ecd621fc</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>c6f10e8c-cf8a-45ea-a656-4b5deabb0d91</v>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f>A$19</f>
+        <v>3ccb2203-2f81-419e-a521-a519ecd621fc</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="11">
         <v>8</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f>A36</f>
-        <v>d4e49725-4a5e-462e-8723-3d2a70b57204</v>
-      </c>
-      <c r="C27" s="13" t="str">
-        <f>A18</f>
-        <v>28e29660-9ad6-4ef1-aeb4-0ec3509888b4</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="11" t="str">
-        <f>B18</f>
-        <v>模块授权</v>
-      </c>
-      <c r="H27" s="11">
-        <v>8</v>
-      </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="A32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>2493f788-bd7a-4652-9f49-128f1356b958</v>
+      </c>
+      <c r="C32" s="13" t="str">
+        <f>A$20</f>
+        <v>2e80683f-b48d-48dc-8052-e8b559d054e8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="11">
         <v>2</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="11" t="str">
-        <f>B15</f>
-        <v>平台模块读取</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <f>A45</f>
+        <v>ef1ec208-9f77-4c58-af69-b09ed91a4322</v>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f>A21</f>
+        <v>b2ae3992-19d3-4b46-8c32-df3559f3c045</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="11">
-        <v>2</v>
-      </c>
-      <c r="H33" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f>B21</f>
+        <v>模块启用/禁用</v>
+      </c>
+      <c r="H33" s="11">
+        <v>8</v>
+      </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="13" t="str">
+        <f>A46</f>
+        <v>d4e49725-4a5e-462e-8723-3d2a70b57204</v>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f>A22</f>
+        <v>28e29660-9ad6-4ef1-aeb4-0ec3509888b4</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f>B22</f>
+        <v>模块授权</v>
+      </c>
+      <c r="H34" s="11">
+        <v>8</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f>B17</f>
+        <v>平台模块读取</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G41" s="11">
         <v>2</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="11">
+        <v>8</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="11">
+        <v>2</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="11" t="str">
-        <f>B17</f>
+      <c r="B45" s="11" t="str">
+        <f>B21</f>
         <v>模块启用/禁用</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G45" s="11">
         <v>8</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="10" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="11" t="str">
-        <f>B18</f>
+      <c r="B46" s="11" t="str">
+        <f>B22</f>
         <v>模块授权</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G46" s="11">
         <v>8</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C37:I37"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
